--- a/tests/testthat/test_data/allWellIds.xlsx
+++ b/tests/testthat/test_data/allWellIds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd4290b48d2b34c4/Documents/testing_tidyplate/test_data/6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{323B0416-A288-44C9-9A1F-AF7C15749051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2140AC5E-43BB-A34F-B603-278195301CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allWellIds" sheetId="1" r:id="rId1"/>
@@ -28,31 +28,31 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>A01</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>B01</t>
   </si>
   <si>
-    <t>B3</t>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>B03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,14 +886,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,29 +909,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
